--- a/src/testSys/testSys-LSH0616/LSH0616/20250502_크몽+wafer+fitting+error+의뢰.xlsx
+++ b/src/testSys/testSys-LSH0616/LSH0616/20250502_크몽+wafer+fitting+error+의뢰.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYSTEMS\PROG\R\TalentPlatform-R\src\testSys\testSys-LSH0616\LSH0616\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAACDF7B-CDA7-4114-A966-831ABC05F209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F09DB-2689-4401-925D-51182E076F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="25">
   <si>
     <t>sample No.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수술0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -558,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144A2E1F-4EF0-4635-9D08-9A71BF4A159F}">
   <dimension ref="A1:H953"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
-      <selection activeCell="M945" sqref="M945"/>
+    <sheetView tabSelected="1" topLeftCell="A939" workbookViewId="0">
+      <selection activeCell="I947" sqref="I947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,7 +605,7 @@
         <v>-2.9957985342741154</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -19637,7 +19641,7 @@
   <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
